--- a/业务表格设计V0.1.xlsx
+++ b/业务表格设计V0.1.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24825" windowHeight="11595"/>
+    <workbookView windowWidth="24825" windowHeight="11595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="userinfo" sheetId="5" r:id="rId1"/>
-    <sheet name="machine" sheetId="1" r:id="rId2"/>
-    <sheet name="softwareproduct" sheetId="3" r:id="rId3"/>
+    <sheet name="device" sheetId="1" r:id="rId2"/>
+    <sheet name="software" sheetId="3" r:id="rId3"/>
     <sheet name="offlinemsg" sheetId="4" r:id="rId4"/>
+    <sheet name="taskinfo" sheetId="7" r:id="rId5"/>
+    <sheet name="syslog" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="169">
-  <si>
-    <t>userinfo（离线消息表）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="189">
+  <si>
+    <t>userinfo（用户信息表）</t>
   </si>
   <si>
     <t>字段</t>
@@ -151,7 +153,7 @@
     <t>remark</t>
   </si>
   <si>
-    <t>machine（设备信息表）</t>
+    <t>device（设备信息表）</t>
   </si>
   <si>
     <t>clientid</t>
@@ -169,7 +171,7 @@
     <t>终端序列号</t>
   </si>
   <si>
-    <t>设备标识</t>
+    <t>设备标识，对应deviceid</t>
   </si>
   <si>
     <t>d079e090-ee3aaa0b-000003ef-000003e8</t>
@@ -361,7 +363,7 @@
     <t>link</t>
   </si>
   <si>
-    <t>项目关联</t>
+    <t>关联信息</t>
   </si>
   <si>
     <t>termmodel</t>
@@ -424,7 +426,7 @@
     <t>条码序列</t>
   </si>
   <si>
-    <t>softwareproduct（软件信息表）</t>
+    <t>software（软件信息表）</t>
   </si>
   <si>
     <t>uploadtime</t>
@@ -524,6 +526,66 @@
   </si>
   <si>
     <t>重发次数</t>
+  </si>
+  <si>
+    <t>taskinfo（任务信息表）</t>
+  </si>
+  <si>
+    <t>设备序列号</t>
+  </si>
+  <si>
+    <t>tasktype</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>任务内容</t>
+  </si>
+  <si>
+    <t>任务状态</t>
+  </si>
+  <si>
+    <t>0,1,2（0-待完成；1-已完成；2-取消任务）</t>
+  </si>
+  <si>
+    <t>syslog（系统日志表）</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>操作说明</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>操作类型</t>
+  </si>
+  <si>
+    <t>loginfo</t>
+  </si>
+  <si>
+    <t>操作日志</t>
+  </si>
+  <si>
+    <t>操作时间</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>userip</t>
+  </si>
+  <si>
+    <t>操作ip</t>
   </si>
 </sst>
 </file>
@@ -531,10 +593,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -558,24 +620,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,22 +665,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -642,9 +704,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,42 +759,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,7 +785,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,13 +869,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,25 +917,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,7 +929,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,115 +953,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,17 +999,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,6 +1034,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -994,19 +1067,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,15 +1096,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1042,10 +1104,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1054,16 +1116,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1072,115 +1134,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1530,8 +1592,8 @@
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -1873,8 +1935,8 @@
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="$A36:$XFD36"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2476,7 +2538,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="2">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
@@ -2663,7 +2725,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3011,8 +3073,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3108,7 +3170,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -3223,6 +3285,443 @@
         <v>256</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.1833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>256</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.1833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>128</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>64</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>64</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>256</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
     </row>

--- a/业务表格设计V0.1.xlsx
+++ b/业务表格设计V0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24825" windowHeight="11595" activeTab="3"/>
+    <workbookView windowWidth="24825" windowHeight="11595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="userinfo" sheetId="5" r:id="rId1"/>
@@ -2725,7 +2725,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3073,8 +3073,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3302,8 +3302,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3532,7 +3532,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>

--- a/业务表格设计V0.1.xlsx
+++ b/业务表格设计V0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24825" windowHeight="11595" activeTab="4"/>
+    <workbookView windowWidth="24825" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="userinfo" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="192">
   <si>
     <t>userinfo（用户信息表）</t>
   </si>
@@ -462,6 +462,9 @@
     <t>上传文件名</t>
   </si>
   <si>
+    <t>平台唯一号</t>
+  </si>
+  <si>
     <t>filetimestamp</t>
   </si>
   <si>
@@ -477,10 +480,16 @@
     <t>软件类型</t>
   </si>
   <si>
+    <t>1-应用软件；2-系统软件</t>
+  </si>
+  <si>
     <t>signflag</t>
   </si>
   <si>
     <t>签名标志</t>
+  </si>
+  <si>
+    <t>true-带签名；false-不带签名</t>
   </si>
   <si>
     <t>qrcode</t>
@@ -594,8 +603,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -621,37 +630,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -659,22 +637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,14 +668,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,6 +707,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,6 +735,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -748,17 +750,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,7 +794,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +830,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,43 +878,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,109 +950,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,11 +1010,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,6 +1041,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1049,35 +1071,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,6 +1094,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1104,10 +1113,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,133 +1125,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2724,8 +2733,8 @@
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2804,7 +2813,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
@@ -2874,7 +2883,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -2934,7 +2943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:5">
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>145</v>
       </c>
@@ -2949,6 +2958,9 @@
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
@@ -2970,10 +2982,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -2985,15 +2997,15 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
@@ -3004,13 +3016,16 @@
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:5">
+      <c r="F15" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
@@ -3021,13 +3036,16 @@
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="F16" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -3041,10 +3059,10 @@
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
@@ -3056,7 +3074,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3091,7 +3109,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3144,10 +3162,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -3161,10 +3179,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -3181,7 +3199,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -3193,7 +3211,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -3236,7 +3254,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3248,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -3257,7 +3275,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -3302,7 +3320,7 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -3320,7 +3338,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3376,7 +3394,7 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -3390,10 +3408,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -3409,10 +3427,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -3465,7 +3483,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3477,7 +3495,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -3486,7 +3504,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -3549,7 +3567,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3602,10 +3620,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -3619,10 +3637,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -3636,10 +3654,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -3658,7 +3676,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -3672,10 +3690,10 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -3691,10 +3709,10 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>

--- a/业务表格设计V0.1.xlsx
+++ b/业务表格设计V0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24825" windowHeight="11595" activeTab="2"/>
+    <workbookView windowWidth="26940" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="userinfo" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>userinfo（用户信息表）</t>
   </si>
@@ -602,10 +602,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -636,13 +636,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -652,10 +645,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,7 +661,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,31 +698,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,15 +715,29 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,34 +750,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -800,19 +800,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,13 +836,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,7 +872,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,67 +896,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,19 +932,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,19 +962,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,11 +1017,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,17 +1047,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,30 +1088,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1105,153 +1096,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,54 +1283,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1597,7 +1597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -1605,16 +1605,16 @@
       <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.1833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+    <col min="1" max="1" width="21.5892857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1696428571429" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3392857142857" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1785714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.1875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7053571428571" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1607142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
@@ -1940,24 +1940,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.05" style="2" customWidth="1"/>
-    <col min="7" max="7" width="40.1916666666667" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+    <col min="1" max="1" width="21.5892857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1696428571429" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3392857142857" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1785714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.0535714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.1875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1607142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
@@ -2729,24 +2729,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.65" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+    <col min="1" max="1" width="21.5892857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1696428571429" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3392857142857" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1785714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.6517857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7053571428571" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1607142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
@@ -3087,7 +3087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -3095,16 +3095,16 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.1833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+    <col min="1" max="1" width="21.5892857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1696428571429" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3392857142857" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1785714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.1875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7053571428571" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1607142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
@@ -3316,7 +3316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -3324,16 +3324,16 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.1833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+    <col min="1" max="1" width="21.5892857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1696428571429" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3392857142857" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1785714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.1875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7053571428571" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1607142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
@@ -3545,7 +3545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -3553,16 +3553,16 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.1833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+    <col min="1" max="1" width="21.5892857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1696428571429" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3392857142857" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1785714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.1875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7053571428571" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1607142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">

--- a/业务表格设计V0.1.xlsx
+++ b/业务表格设计V0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24825" windowHeight="11595" activeTab="2"/>
+    <workbookView windowWidth="24825" windowHeight="11595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="userinfo" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="194">
   <si>
     <t>userinfo（用户信息表）</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>条码序列</t>
+  </si>
+  <si>
+    <t>facelibrid</t>
+  </si>
+  <si>
+    <t>人脸库id</t>
   </si>
   <si>
     <t>software（软件信息表）</t>
@@ -602,9 +608,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -636,8 +642,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,8 +717,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -668,45 +741,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,28 +756,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -751,23 +764,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,13 +800,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,13 +830,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,37 +902,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,43 +938,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +968,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,31 +980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,9 +1016,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,17 +1034,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,15 +1073,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1097,11 +1090,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,145 +1119,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1942,10 +1948,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2024,7 +2030,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
@@ -2045,7 +2051,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>50</v>
@@ -2658,7 +2664,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -2677,7 +2683,7 @@
         <v>17</v>
       </c>
       <c r="D38" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
@@ -2696,7 +2702,7 @@
         <v>17</v>
       </c>
       <c r="D39" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -2716,6 +2722,23 @@
         <v>32</v>
       </c>
       <c r="E40" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2">
+        <v>32</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2733,8 +2756,8 @@
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2751,7 +2774,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2838,10 +2861,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2857,10 +2880,10 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -2874,10 +2897,10 @@
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -2891,10 +2914,10 @@
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -2906,7 +2929,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
@@ -2945,10 +2968,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -2960,7 +2983,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
@@ -2982,10 +3005,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -2997,15 +3020,15 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
@@ -3017,15 +3040,15 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
@@ -3037,15 +3060,15 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -3059,10 +3082,10 @@
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
@@ -3074,7 +3097,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3115,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3109,7 +3132,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3162,16 +3185,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
@@ -3179,16 +3202,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -3199,19 +3222,19 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -3254,7 +3277,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3266,7 +3289,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -3275,7 +3298,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -3300,7 +3323,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="2">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -3338,7 +3361,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3394,7 +3417,7 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -3408,10 +3431,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -3427,10 +3450,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -3483,7 +3506,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3495,7 +3518,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -3504,7 +3527,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -3549,8 +3572,8 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3567,7 +3590,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3620,10 +3643,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -3637,10 +3660,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -3654,16 +3677,16 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>64</v>
+        <v>1024</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -3676,7 +3699,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -3690,10 +3713,10 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -3709,10 +3732,10 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -3737,7 +3760,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>

--- a/业务表格设计V0.1.xlsx
+++ b/业务表格设计V0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26940" windowHeight="13140" activeTab="1"/>
+    <workbookView windowWidth="24825" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="userinfo" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="194">
   <si>
     <t>userinfo（用户信息表）</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>条码序列</t>
+  </si>
+  <si>
+    <t>facelibrid</t>
+  </si>
+  <si>
+    <t>人脸库id</t>
   </si>
   <si>
     <t>software（软件信息表）</t>
@@ -602,10 +608,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -630,7 +636,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,37 +732,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -683,24 +739,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,44 +755,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,10 +772,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -794,7 +800,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,13 +860,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,31 +926,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,7 +968,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,109 +980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,8 +1017,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,17 +1062,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,22 +1077,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,22 +1097,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,148 +1116,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,54 +1289,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1597,24 +1603,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5892857142857" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1696428571429" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3392857142857" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.1785714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.1875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7053571428571" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="43.1607142857143" style="1"/>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.1916666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
@@ -1924,7 +1930,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="2">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -1940,24 +1946,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5892857142857" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1696428571429" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3392857142857" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.1785714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.0535714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="40.1875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="43.1607142857143" style="1"/>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.05" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.1916666666667" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
@@ -2024,7 +2030,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
@@ -2045,7 +2051,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>50</v>
@@ -2658,7 +2664,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -2677,7 +2683,7 @@
         <v>17</v>
       </c>
       <c r="D38" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
@@ -2696,7 +2702,7 @@
         <v>17</v>
       </c>
       <c r="D39" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -2716,6 +2722,23 @@
         <v>32</v>
       </c>
       <c r="E40" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2">
+        <v>33</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2729,29 +2752,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5892857142857" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1696428571429" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3392857142857" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.1785714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.6517857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7053571428571" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="43.1607142857143" style="1"/>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.65" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2838,10 +2861,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2857,10 +2880,10 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -2874,10 +2897,10 @@
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -2891,10 +2914,10 @@
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -2906,7 +2929,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
@@ -2945,10 +2968,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -2960,7 +2983,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
@@ -2982,10 +3005,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -2997,15 +3020,15 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
@@ -3017,15 +3040,15 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
@@ -3037,15 +3060,15 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -3059,22 +3082,22 @@
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3087,29 +3110,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5892857142857" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1696428571429" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3392857142857" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.1785714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.1875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7053571428571" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="43.1607142857143" style="1"/>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.1916666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3162,16 +3185,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
@@ -3179,16 +3202,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -3199,19 +3222,19 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -3254,7 +3277,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3266,7 +3289,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -3275,7 +3298,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -3300,7 +3323,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="2">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -3316,7 +3339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -3324,21 +3347,21 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5892857142857" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1696428571429" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3392857142857" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.1785714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.1875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7053571428571" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="43.1607142857143" style="1"/>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.1916666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3394,7 +3417,7 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -3408,10 +3431,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -3427,10 +3450,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -3483,7 +3506,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3495,7 +3518,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -3504,7 +3527,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -3545,29 +3568,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5892857142857" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1696428571429" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3392857142857" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.1785714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.1875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7053571428571" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="43.1607142857143" style="1"/>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.1916666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3620,10 +3643,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -3637,10 +3660,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -3654,16 +3677,16 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>64</v>
+        <v>1024</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -3676,7 +3699,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -3690,10 +3713,10 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -3709,10 +3732,10 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -3737,7 +3760,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>

--- a/业务表格设计V0.1.xlsx
+++ b/业务表格设计V0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24825" windowHeight="11595" activeTab="2"/>
+    <workbookView windowWidth="25545" windowHeight="12000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="userinfo" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="194">
   <si>
     <t>userinfo（用户信息表）</t>
   </si>
@@ -636,14 +636,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,35 +659,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,7 +679,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -708,16 +686,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,7 +741,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,9 +765,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -800,19 +800,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +848,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,13 +914,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,127 +980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,6 +1014,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1033,31 +1048,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,15 +1078,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,16 +1098,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,10 +1119,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1131,133 +1131,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1951,7 +1951,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2754,10 +2754,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3100,6 +3100,23 @@
         <v>163</v>
       </c>
     </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
@@ -3115,7 +3132,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>

--- a/业务表格设计V0.1.xlsx
+++ b/业务表格设计V0.1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="196">
   <si>
     <t>userinfo（用户信息表）</t>
   </si>
@@ -511,6 +511,12 @@
   </si>
   <si>
     <t>相对路径</t>
+  </si>
+  <si>
+    <t>fitmodel</t>
+  </si>
+  <si>
+    <t>适用设备类型</t>
   </si>
   <si>
     <t>offlinemsg（离线消息表）</t>
@@ -608,8 +614,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -636,14 +642,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,14 +657,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,20 +679,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -701,15 +686,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,9 +716,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,22 +782,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -800,7 +806,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,37 +896,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,31 +962,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,13 +974,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,73 +986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,39 +1021,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1066,7 +1039,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,21 +1117,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1119,10 +1125,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1131,133 +1137,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2754,10 +2760,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3102,10 +3108,10 @@
     </row>
     <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
@@ -3116,6 +3122,25 @@
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3149,7 +3174,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3202,10 +3227,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -3219,10 +3244,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -3239,7 +3264,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -3251,7 +3276,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -3294,7 +3319,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3306,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -3315,7 +3340,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -3378,7 +3403,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3434,7 +3459,7 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -3448,10 +3473,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -3467,10 +3492,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -3523,7 +3548,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3535,7 +3560,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -3544,7 +3569,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -3607,7 +3632,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3660,10 +3685,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -3677,10 +3702,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -3694,10 +3719,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -3716,7 +3741,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -3730,10 +3755,10 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -3749,10 +3774,10 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
